--- a/biology/Histoire de la zoologie et de la botanique/Konrad_von_Megenberg/Konrad_von_Megenberg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Konrad_von_Megenberg/Konrad_von_Megenberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Konrad von Megenberg (aussi Konrad von Mengelberg[1] ou, en latin, Conradus de Montepuellarum) est un enseignant et un écrivain allemand du Moyen Âge[2]. À côté de son œuvre latine il a laissé en langue allemande le Buch von den natürlichen Dingen.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Konrad von Megenberg (aussi Konrad von Mengelberg ou, en latin, Conradus de Montepuellarum) est un enseignant et un écrivain allemand du Moyen Âge. À côté de son œuvre latine il a laissé en langue allemande le Buch von den natürlichen Dingen.
 Il semblerait être né en 1309 à Mäbenberg près de Nuremberg. Il décède en 1374 à Ratisbonne.
-Ses études le mènent à Erfurt puis à Paris où il obtient un magister artium. Il enseigne la philosophie et la théologie à la Sorbonne de 1334 à 1342. Il retourne alors en Allemagne à Ratisbonne. Membre du clergé il devient prédicateur. Il finira au conseil de la ville[2].  
-C'est l'un des plus prolifiques auteurs allemands du XIVe siècle. Son ouvrage le plus connu est Das Buch der Natur auquel il  a travaillé à partir de 1349[2].
+Ses études le mènent à Erfurt puis à Paris où il obtient un magister artium. Il enseigne la philosophie et la théologie à la Sorbonne de 1334 à 1342. Il retourne alors en Allemagne à Ratisbonne. Membre du clergé il devient prédicateur. Il finira au conseil de la ville.  
+C'est l'un des plus prolifiques auteurs allemands du XIVe siècle. Son ouvrage le plus connu est Das Buch der Natur auquel il  a travaillé à partir de 1349.
 C'est le premier ouvrage concernant l'histoire naturelle imprimé en langue allemande et qui comporte des illustrations d'animaux.
-En 8 chapitres, il rassemble les connaissances de son époque[2]:
+En 8 chapitres, il rassemble les connaissances de son époque:
 la nature de l'homme ;
 le ciel, les sept planètes, l'astronomie et la météorologie ;
 la zoologie ;
@@ -525,7 +537,9 @@
           <t>Quelques écrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Speculum felicitatis humane sive Monastica, avant 1348.
 Buch von den natürlichen Dingen (avant 1350).
